--- a/app/static/sheet5.xlsx
+++ b/app/static/sheet5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CC4F95-A2CA-A04A-86FC-09C9E0B6EEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB2FADA-4398-1A4B-8EB9-5C93E415DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2090,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A19" sqref="A5:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -2150,279 +2150,217 @@
       <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
+      <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
+      <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="9">
-        <v>4</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="9">
-        <v>5</v>
-      </c>
+      <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="9">
-        <v>6</v>
-      </c>
+      <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1">
-      <c r="A11" s="9">
-        <v>7</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1">
-      <c r="A12" s="9">
-        <v>8</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1">
-      <c r="A13" s="9">
-        <v>9</v>
-      </c>
+      <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="9">
-        <v>10</v>
-      </c>
+      <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="9">
-        <v>11</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="9">
-        <v>13</v>
-      </c>
+      <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="9">
-        <v>14</v>
-      </c>
+      <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="9">
-        <v>15</v>
-      </c>
+      <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="9">
-        <v>16</v>
-      </c>
+      <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="9">
-        <v>17</v>
-      </c>
+      <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="9">
-        <v>18</v>
-      </c>
+      <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="9">
-        <v>19</v>
-      </c>
+      <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="9">
-        <v>20</v>
-      </c>
+      <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="9">
-        <v>21</v>
-      </c>
+      <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="9">
-        <v>22</v>
-      </c>
+      <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="9">
-        <v>23</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="9">
-        <v>24</v>
-      </c>
+      <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="9">
-        <v>25</v>
-      </c>
+      <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="9">
-        <v>26</v>
-      </c>
+      <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="9">
-        <v>27</v>
-      </c>
+      <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="9">
-        <v>28</v>
-      </c>
+      <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="9">
-        <v>29</v>
-      </c>
+      <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
-      <c r="A34" s="9">
-        <v>32</v>
-      </c>
+      <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="9">
-        <v>33</v>
-      </c>
+      <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="6"/>
